--- a/preprocessed_data/First Algorithm/fullMaximisation(independent).xlsx
+++ b/preprocessed_data/First Algorithm/fullMaximisation(independent).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilbert\Desktop\Github (OP)\MAST30034_P2\preprocessed_data\First Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D966CFA-925F-4474-82E2-D13F539682C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C76D0B-1E30-4F72-BE8E-A0AC06378459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:N2161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
